--- a/protocols/Protocolo de constraints.xlsx
+++ b/protocols/Protocolo de constraints.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" tabRatio="895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9435" tabRatio="895" firstSheet="34" activeTab="44"/>
   </bookViews>
   <sheets>
     <sheet name="NE" sheetId="45" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="165">
   <si>
     <t>Constraint</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>D(V_cc)&gt;D</t>
-  </si>
-  <si>
-    <t>Portales ANT-LAT dia por medio</t>
   </si>
   <si>
     <t>Portales ANT-LAT semanal</t>
@@ -524,9 +521,6 @@
     <t>CBCT primeros 3 dias representativos para promedios + 1 por semana</t>
   </si>
   <si>
-    <t>CBCT primeros 3 dias representativos para promedios + 2 por semana</t>
-  </si>
-  <si>
     <t>CBCT primer día + CBCT semanal o 2 veces por semana sujeto a setup</t>
   </si>
   <si>
@@ -534,9 +528,6 @@
   </si>
   <si>
     <t>Portales POST-LAT diario</t>
-  </si>
-  <si>
-    <t>Portales POST-LAT dia por medio</t>
   </si>
   <si>
     <t>Portales POST-LAT semanal</t>
@@ -549,6 +540,24 @@
   </si>
   <si>
     <t>Definir previo a setup</t>
+  </si>
+  <si>
+    <t>Portales ANT-LAT día por medio</t>
+  </si>
+  <si>
+    <t>Portales POST-LAT día por medio</t>
+  </si>
+  <si>
+    <t>CBCT diario + CBCT primeros 3 días representativos para promedios</t>
+  </si>
+  <si>
+    <t>CBCT día por medio + CBCT primeros 3 días representativos para promedios</t>
+  </si>
+  <si>
+    <t>CBCT dos veces por semana + CBCT primeros 3 días representativos para promedios</t>
+  </si>
+  <si>
+    <t>CBCT una vez por semana + CBCT primeros 3 días representativos para promedios</t>
   </si>
 </sst>
 </file>
@@ -3821,7 +3830,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4085,11 +4094,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" style="76" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="76" customWidth="1"/>
@@ -4352,7 +4361,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -4362,10 +4371,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -4378,27 +4387,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -4413,12 +4422,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10">
         <v>4005</v>
@@ -4435,7 +4444,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="64">
         <v>4800</v>
@@ -4459,33 +4468,33 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="F10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="G10" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>3</v>
@@ -4536,7 +4545,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>3</v>
@@ -4570,7 +4579,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>3</v>
@@ -4614,10 +4623,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>7</v>
@@ -4638,7 +4647,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>7</v>
@@ -4659,7 +4668,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>7</v>
@@ -4680,7 +4689,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>7</v>
@@ -4712,7 +4721,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>9</v>
@@ -4727,7 +4736,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
       <c r="B25" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>9</v>
@@ -4742,7 +4751,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>7</v>
@@ -4759,7 +4768,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>7</v>
@@ -4795,7 +4804,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>9</v>
@@ -4953,7 +4962,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4974,7 +4983,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -4984,10 +4993,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -5000,27 +5009,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -5035,12 +5044,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10">
         <v>4005</v>
@@ -5057,7 +5066,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="27">
         <v>4800</v>
@@ -5081,33 +5090,33 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="F10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="G10" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>3</v>
@@ -5158,7 +5167,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
       <c r="B14" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>3</v>
@@ -5192,7 +5201,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>3</v>
@@ -5236,10 +5245,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>7</v>
@@ -5260,7 +5269,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>7</v>
@@ -5281,7 +5290,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>7</v>
@@ -5302,7 +5311,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>7</v>
@@ -5334,7 +5343,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>9</v>
@@ -5349,7 +5358,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
       <c r="B25" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>9</v>
@@ -5364,7 +5373,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>7</v>
@@ -5381,7 +5390,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>7</v>
@@ -5417,7 +5426,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>7</v>
@@ -5447,7 +5456,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="47" t="s">
         <v>9</v>
@@ -5587,7 +5596,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5608,7 +5617,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -5618,10 +5627,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -5634,27 +5643,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -5669,12 +5678,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10">
         <v>4005</v>
@@ -5691,7 +5700,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="27">
         <v>4800</v>
@@ -5708,7 +5717,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="10">
         <v>4005</v>
@@ -5732,33 +5741,33 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="D11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="E11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="F11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="G11" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>3</v>
@@ -5809,7 +5818,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>3</v>
@@ -5839,7 +5848,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>3</v>
@@ -5869,7 +5878,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>3</v>
@@ -5900,7 +5909,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="41" t="s">
@@ -5916,7 +5925,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>7</v>
@@ -5937,7 +5946,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>7</v>
@@ -5958,7 +5967,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>7</v>
@@ -5979,7 +5988,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>7</v>
@@ -6011,7 +6020,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
       <c r="B27" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>9</v>
@@ -6026,7 +6035,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>9</v>
@@ -6041,7 +6050,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>7</v>
@@ -6058,7 +6067,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="B30" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>7</v>
@@ -6094,7 +6103,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>9</v>
@@ -6225,7 +6234,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="46"/>
       <c r="C46" s="47"/>
@@ -6261,7 +6270,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -6271,10 +6280,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -6287,27 +6296,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -6322,12 +6331,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10">
         <v>4005</v>
@@ -6344,7 +6353,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="27">
         <v>4800</v>
@@ -6361,7 +6370,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="10">
         <v>4005</v>
@@ -6385,33 +6394,33 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="D11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="E11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="F11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="G11" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>3</v>
@@ -6462,7 +6471,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>3</v>
@@ -6492,7 +6501,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>3</v>
@@ -6522,7 +6531,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>3</v>
@@ -6553,7 +6562,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="41" t="s">
@@ -6569,7 +6578,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>7</v>
@@ -6590,7 +6599,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>7</v>
@@ -6611,7 +6620,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>7</v>
@@ -6632,7 +6641,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>7</v>
@@ -6664,7 +6673,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
       <c r="B27" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>9</v>
@@ -6679,7 +6688,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>9</v>
@@ -6694,7 +6703,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>7</v>
@@ -6711,7 +6720,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="B30" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>7</v>
@@ -6747,7 +6756,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>7</v>
@@ -6777,7 +6786,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>9</v>
@@ -6890,7 +6899,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="46"/>
       <c r="C46" s="47"/>
@@ -6926,7 +6935,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -6936,10 +6945,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -6952,27 +6961,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -6988,38 +6997,38 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>3</v>
@@ -7052,10 +7061,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>39</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>9</v>
@@ -7091,7 +7100,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>7</v>
@@ -7150,7 +7159,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>7</v>
@@ -7167,7 +7176,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>7</v>
@@ -7214,7 +7223,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>9</v>
@@ -7417,7 +7426,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -7438,7 +7447,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -7448,10 +7457,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -7464,27 +7473,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -7500,38 +7509,38 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>3</v>
@@ -7564,10 +7573,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>9</v>
@@ -7603,7 +7612,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>7</v>
@@ -7662,7 +7671,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>7</v>
@@ -7679,7 +7688,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>7</v>
@@ -7726,7 +7735,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>7</v>
@@ -7756,7 +7765,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>9</v>
@@ -7941,7 +7950,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -7962,7 +7971,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -7972,10 +7981,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -7988,27 +7997,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -8024,12 +8033,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10">
         <v>4005</v>
@@ -8054,33 +8063,33 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>3</v>
@@ -8114,7 +8123,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>3</v>
@@ -8143,10 +8152,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>7</v>
@@ -8167,7 +8176,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>7</v>
@@ -8188,7 +8197,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>7</v>
@@ -8209,7 +8218,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>7</v>
@@ -8241,7 +8250,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>9</v>
@@ -8256,7 +8265,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>9</v>
@@ -8271,7 +8280,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>7</v>
@@ -8288,7 +8297,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>7</v>
@@ -8324,7 +8333,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>9</v>
@@ -8518,7 +8527,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +8548,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -8549,10 +8558,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -8565,27 +8574,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -8601,12 +8610,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10">
         <v>4005</v>
@@ -8631,33 +8640,33 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>3</v>
@@ -8691,7 +8700,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>3</v>
@@ -8720,10 +8729,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>7</v>
@@ -8744,7 +8753,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>7</v>
@@ -8765,7 +8774,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>7</v>
@@ -8786,7 +8795,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>7</v>
@@ -8818,7 +8827,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>9</v>
@@ -8833,7 +8842,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>9</v>
@@ -8848,7 +8857,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>7</v>
@@ -8865,7 +8874,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>7</v>
@@ -8901,7 +8910,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>7</v>
@@ -8931,7 +8940,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>9</v>
@@ -9116,7 +9125,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -9143,7 +9152,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -9153,10 +9162,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -9169,27 +9178,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -9204,12 +9213,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10">
         <v>4005</v>
@@ -9226,7 +9235,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="27">
         <v>4005</v>
@@ -9250,33 +9259,33 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="F10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="G10" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>3</v>
@@ -9310,7 +9319,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>3</v>
@@ -9340,7 +9349,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>3</v>
@@ -9369,10 +9378,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>7</v>
@@ -9393,7 +9402,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>7</v>
@@ -9414,7 +9423,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>7</v>
@@ -9435,7 +9444,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>7</v>
@@ -9467,7 +9476,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>9</v>
@@ -9482,7 +9491,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>9</v>
@@ -9497,7 +9506,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>7</v>
@@ -9514,7 +9523,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>7</v>
@@ -9550,7 +9559,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>9</v>
@@ -9708,7 +9717,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -9729,7 +9738,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -9739,10 +9748,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -9755,27 +9764,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -9790,12 +9799,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10">
         <v>4005</v>
@@ -9812,7 +9821,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="27">
         <v>4005</v>
@@ -9836,33 +9845,33 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="F10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="G10" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>3</v>
@@ -9896,7 +9905,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>3</v>
@@ -9926,7 +9935,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>3</v>
@@ -9955,10 +9964,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>7</v>
@@ -9979,7 +9988,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>7</v>
@@ -10000,7 +10009,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>7</v>
@@ -10021,7 +10030,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>7</v>
@@ -10053,7 +10062,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>9</v>
@@ -10068,7 +10077,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>9</v>
@@ -10083,7 +10092,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>7</v>
@@ -10100,7 +10109,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>7</v>
@@ -10136,7 +10145,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>7</v>
@@ -10166,7 +10175,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>9</v>
@@ -10306,7 +10315,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -10324,10 +10333,10 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" style="76" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="76" customWidth="1"/>
@@ -10361,7 +10370,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -10375,7 +10384,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -10387,7 +10396,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="E5" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -10413,7 +10422,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -10427,7 +10436,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -10441,7 +10450,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G9" s="89"/>
       <c r="H9" s="89"/>
@@ -10461,7 +10470,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G10" s="90"/>
       <c r="H10" s="89"/>
@@ -10481,7 +10490,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G11" s="90"/>
       <c r="H11" s="89"/>
@@ -10493,7 +10502,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
       <c r="E12" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G12" s="90"/>
       <c r="H12" s="89"/>
@@ -10505,7 +10514,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
       <c r="E13" s="86" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="G13" s="90"/>
       <c r="H13" s="89"/>
@@ -10516,7 +10525,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E14" s="87" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G14" s="90"/>
       <c r="H14" s="89"/>
@@ -10527,7 +10536,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E15" s="86" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="G15" s="90"/>
       <c r="H15" s="89"/>
@@ -10538,7 +10547,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E16" s="87" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G16" s="89"/>
       <c r="H16" s="89"/>
@@ -10549,7 +10558,7 @@
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G17" s="89"/>
       <c r="H17" s="89"/>
@@ -10560,7 +10569,7 @@
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="88" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -10581,7 +10590,7 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -10591,10 +10600,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -10607,27 +10616,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="27">
         <v>4256</v>
@@ -10643,38 +10652,38 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>3</v>
@@ -10707,10 +10716,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>39</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>9</v>
@@ -10746,7 +10755,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>7</v>
@@ -10805,7 +10814,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>7</v>
@@ -10822,7 +10831,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>7</v>
@@ -10869,7 +10878,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>9</v>
@@ -11072,7 +11081,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -11093,7 +11102,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -11103,10 +11112,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -11119,27 +11128,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="27">
         <v>4256</v>
@@ -11155,38 +11164,38 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>3</v>
@@ -11219,10 +11228,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>9</v>
@@ -11258,7 +11267,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>7</v>
@@ -11317,7 +11326,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>7</v>
@@ -11334,7 +11343,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>7</v>
@@ -11381,7 +11390,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>7</v>
@@ -11411,7 +11420,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>9</v>
@@ -11596,7 +11605,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -11617,7 +11626,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -11627,10 +11636,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -11643,27 +11652,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="27">
         <v>4256</v>
@@ -11678,12 +11687,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10">
         <v>4256</v>
@@ -11707,33 +11716,33 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="E8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="G8" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>3</v>
@@ -11767,7 +11776,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>3</v>
@@ -11796,10 +11805,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>7</v>
@@ -11820,7 +11829,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
       <c r="B14" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>7</v>
@@ -11841,7 +11850,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>7</v>
@@ -11862,7 +11871,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>7</v>
@@ -11894,7 +11903,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>9</v>
@@ -11909,7 +11918,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>9</v>
@@ -11924,7 +11933,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>7</v>
@@ -11941,7 +11950,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>7</v>
@@ -11977,7 +11986,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>9</v>
@@ -12165,7 +12174,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -12186,7 +12195,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -12196,10 +12205,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -12212,27 +12221,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="27">
         <v>4256</v>
@@ -12247,12 +12256,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10">
         <v>4256</v>
@@ -12276,33 +12285,33 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="E8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="G8" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>3</v>
@@ -12336,7 +12345,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>3</v>
@@ -12365,10 +12374,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>7</v>
@@ -12389,7 +12398,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
       <c r="B14" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>7</v>
@@ -12410,7 +12419,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>7</v>
@@ -12431,7 +12440,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>7</v>
@@ -12463,7 +12472,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>9</v>
@@ -12478,7 +12487,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>9</v>
@@ -12493,7 +12502,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>7</v>
@@ -12510,7 +12519,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>7</v>
@@ -12546,7 +12555,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>7</v>
@@ -12576,7 +12585,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>9</v>
@@ -12752,7 +12761,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -12773,7 +12782,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -12783,10 +12792,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -12799,27 +12808,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="27">
         <v>4256</v>
@@ -12834,12 +12843,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10">
         <v>4256</v>
@@ -12856,7 +12865,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="27">
         <v>4256</v>
@@ -12880,33 +12889,33 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>3</v>
@@ -12940,7 +12949,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>3</v>
@@ -12970,7 +12979,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>3</v>
@@ -12999,10 +13008,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>7</v>
@@ -13023,7 +13032,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>7</v>
@@ -13044,7 +13053,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>7</v>
@@ -13065,7 +13074,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>7</v>
@@ -13097,7 +13106,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>9</v>
@@ -13112,7 +13121,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>9</v>
@@ -13127,7 +13136,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>7</v>
@@ -13144,7 +13153,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>7</v>
@@ -13180,7 +13189,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>9</v>
@@ -13341,7 +13350,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -13362,7 +13371,7 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -13372,10 +13381,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -13388,27 +13397,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="27">
         <v>4256</v>
@@ -13423,12 +13432,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10">
         <v>4256</v>
@@ -13445,7 +13454,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="27">
         <v>4256</v>
@@ -13469,33 +13478,33 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>3</v>
@@ -13529,7 +13538,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>3</v>
@@ -13559,7 +13568,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>3</v>
@@ -13588,10 +13597,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>7</v>
@@ -13612,7 +13621,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>7</v>
@@ -13633,7 +13642,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>7</v>
@@ -13654,7 +13663,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>7</v>
@@ -13686,7 +13695,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>9</v>
@@ -13701,7 +13710,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>9</v>
@@ -13716,7 +13725,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>7</v>
@@ -13733,7 +13742,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>7</v>
@@ -13769,7 +13778,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>7</v>
@@ -13799,7 +13808,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>9</v>
@@ -13948,7 +13957,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -13969,7 +13978,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -13981,10 +13990,10 @@
     <row r="1" spans="1:9" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -13997,27 +14006,27 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="27">
         <v>6000</v>
@@ -14039,7 +14048,7 @@
     </row>
     <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="10">
         <v>6000</v>
@@ -14061,33 +14070,33 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="E8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="G8" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>3</v>
@@ -14117,7 +14126,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>3</v>
@@ -14146,10 +14155,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>7</v>
@@ -14215,7 +14224,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>7</v>
@@ -14266,7 +14275,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>7</v>
@@ -14283,7 +14292,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>7</v>
@@ -14313,7 +14322,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>7</v>
@@ -14343,7 +14352,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
       <c r="B25" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>7</v>
@@ -14360,7 +14369,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>10</v>
@@ -14547,7 +14556,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -14574,7 +14583,7 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -14586,10 +14595,10 @@
     <row r="1" spans="1:9" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -14602,27 +14611,27 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="27">
         <v>7020</v>
@@ -14638,13 +14647,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="10">
         <v>7020</v>
@@ -14663,7 +14672,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="27">
         <v>4860</v>
@@ -14682,33 +14691,33 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>3</v>
@@ -14738,7 +14747,7 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>3</v>
@@ -14768,7 +14777,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>3</v>
@@ -14784,10 +14793,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>7</v>
@@ -14883,7 +14892,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>7</v>
@@ -14934,7 +14943,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>10</v>
@@ -15019,7 +15028,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>7</v>
@@ -15049,7 +15058,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>7</v>
@@ -15070,7 +15079,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>7</v>
@@ -15091,7 +15100,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="47" t="s">
         <v>10</v>
@@ -15108,7 +15117,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="47" t="s">
         <v>9</v>
@@ -15221,7 +15230,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -15248,7 +15257,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -15260,10 +15269,10 @@
     <row r="1" spans="1:9" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -15276,27 +15285,27 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="27">
         <v>7020</v>
@@ -15312,13 +15321,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="10">
         <v>7020</v>
@@ -15337,7 +15346,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="27">
         <v>5994</v>
@@ -15356,7 +15365,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>4860</v>
@@ -15383,33 +15392,33 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="F10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="G10" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>3</v>
@@ -15439,7 +15448,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>3</v>
@@ -15469,7 +15478,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>3</v>
@@ -15486,7 +15495,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>3</v>
@@ -15502,10 +15511,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>7</v>
@@ -15571,7 +15580,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>7</v>
@@ -15622,7 +15631,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>10</v>
@@ -15692,7 +15701,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>7</v>
@@ -15722,7 +15731,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="41" t="s">
         <v>7</v>
@@ -15756,7 +15765,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>7</v>
@@ -15790,7 +15799,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="47" t="s">
         <v>10</v>
@@ -15807,7 +15816,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="47" t="s">
         <v>9</v>
@@ -15911,7 +15920,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -15938,7 +15947,7 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -15950,10 +15959,10 @@
     <row r="1" spans="1:9" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -15966,27 +15975,27 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="27">
         <v>4600</v>
@@ -16002,13 +16011,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10">
         <v>4600</v>
@@ -16027,7 +16036,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="27">
         <v>2400</v>
@@ -16046,33 +16055,33 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>3</v>
@@ -16102,7 +16111,7 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>3</v>
@@ -16118,10 +16127,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>7</v>
@@ -16217,7 +16226,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>7</v>
@@ -16268,7 +16277,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>10</v>
@@ -16353,7 +16362,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>7</v>
@@ -16383,7 +16392,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>7</v>
@@ -16413,7 +16422,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>7</v>
@@ -16443,7 +16452,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="47" t="s">
         <v>10</v>
@@ -16567,7 +16576,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -16594,7 +16603,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -16606,10 +16615,10 @@
     <row r="1" spans="1:9" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>20</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -16622,27 +16631,27 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -16664,33 +16673,33 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="77"/>
       <c r="D8" s="43">
@@ -17036,7 +17045,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="78"/>
@@ -17075,7 +17084,7 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -17087,10 +17096,10 @@
     <row r="1" spans="1:9" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -17103,27 +17112,27 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="27">
         <v>4600</v>
@@ -17139,7 +17148,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="35"/>
     </row>
@@ -17148,34 +17157,34 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>3</v>
@@ -17203,7 +17212,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="79"/>
       <c r="B10" s="79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>3</v>
@@ -17232,10 +17241,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="81" t="s">
         <v>7</v>
@@ -17271,7 +17280,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="79"/>
       <c r="B14" s="79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="81" t="s">
         <v>7</v>
@@ -17307,7 +17316,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
       <c r="B16" s="79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="80" t="s">
         <v>9</v>
@@ -17407,7 +17416,7 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="79"/>
       <c r="B22" s="79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="81" t="s">
         <v>9</v>
@@ -17455,7 +17464,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="79"/>
       <c r="B25" s="79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="81" t="s">
         <v>9</v>
@@ -17503,7 +17512,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="79"/>
       <c r="B28" s="79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="81" t="s">
         <v>9</v>
@@ -17519,7 +17528,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="79"/>
       <c r="B29" s="79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="81" t="s">
         <v>9</v>
@@ -17684,7 +17693,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="79"/>
       <c r="C46" s="84"/>
@@ -17711,7 +17720,7 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -17723,10 +17732,10 @@
     <row r="1" spans="1:9" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -17739,27 +17748,27 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="27">
         <v>4500</v>
@@ -17775,13 +17784,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>4500</v>
@@ -17800,7 +17809,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="27">
         <v>5500</v>
@@ -17830,33 +17839,33 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>3</v>
@@ -17873,7 +17882,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>3</v>
@@ -17890,7 +17899,7 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>3</v>
@@ -17919,10 +17928,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>7</v>
@@ -17988,7 +17997,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>7</v>
@@ -18028,7 +18037,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>9</v>
@@ -18073,7 +18082,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>9</v>
@@ -18103,7 +18112,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>9</v>
@@ -18133,7 +18142,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>9</v>
@@ -18148,7 +18157,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>9</v>
@@ -18315,7 +18324,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -18342,7 +18351,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -18354,10 +18363,10 @@
     <row r="1" spans="1:9" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -18370,27 +18379,27 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="27">
         <v>2500</v>
@@ -18420,34 +18429,34 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>3</v>
@@ -18502,7 +18511,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>3</v>
@@ -18522,10 +18531,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>9</v>
@@ -18540,7 +18549,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>9</v>
@@ -18555,7 +18564,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>9</v>
@@ -18570,7 +18579,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>9</v>
@@ -18854,7 +18863,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -18881,7 +18890,7 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -18893,10 +18902,10 @@
     <row r="1" spans="1:9" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -18909,27 +18918,27 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="27">
         <v>4500</v>
@@ -18945,13 +18954,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="10">
         <v>540</v>
@@ -18980,33 +18989,33 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="E8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="G8" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>3</v>
@@ -19040,7 +19049,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>3</v>
@@ -19086,10 +19095,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>7</v>
@@ -19148,7 +19157,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>7</v>
@@ -19233,7 +19242,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>7</v>
@@ -19284,7 +19293,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>7</v>
@@ -19335,7 +19344,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>9</v>
@@ -19352,7 +19361,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>7</v>
@@ -19399,7 +19408,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" s="47" t="s">
         <v>10</v>
@@ -19544,7 +19553,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -19571,7 +19580,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -19581,10 +19590,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -19597,27 +19606,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="27">
         <v>7000</v>
@@ -19633,12 +19642,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="10">
         <v>7000</v>
@@ -19656,7 +19665,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="27">
         <v>6300</v>
@@ -19674,7 +19683,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="10">
         <v>5600</v>
@@ -19692,33 +19701,33 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="F10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="G10" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>3</v>
@@ -19752,7 +19761,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>3</v>
@@ -19786,7 +19795,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>3</v>
@@ -19820,7 +19829,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>3</v>
@@ -19853,10 +19862,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>9</v>
@@ -19873,7 +19882,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>9</v>
@@ -19890,7 +19899,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>9</v>
@@ -19907,7 +19916,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>9</v>
@@ -19924,7 +19933,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>9</v>
@@ -19941,7 +19950,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>9</v>
@@ -19958,7 +19967,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
       <c r="B25" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>9</v>
@@ -19975,7 +19984,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>9</v>
@@ -19992,7 +20001,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
       <c r="B27" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>9</v>
@@ -20009,7 +20018,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>9</v>
@@ -20026,7 +20035,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>9</v>
@@ -20043,7 +20052,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="41" t="s">
         <v>9</v>
@@ -20058,7 +20067,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
       <c r="B31" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>9</v>
@@ -20073,7 +20082,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>9</v>
@@ -20088,7 +20097,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>7</v>
@@ -20118,7 +20127,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>8</v>
@@ -20135,7 +20144,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
       <c r="B36" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>8</v>
@@ -20167,7 +20176,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
       <c r="B38" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>8</v>
@@ -20199,7 +20208,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="B40" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>7</v>
@@ -20260,7 +20269,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="70"/>
       <c r="C46" s="70"/>
@@ -20287,7 +20296,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -20297,10 +20306,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -20313,27 +20322,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="27">
         <v>7000</v>
@@ -20349,12 +20358,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="10">
         <v>7000</v>
@@ -20372,7 +20381,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="27">
         <v>6300</v>
@@ -20397,33 +20406,33 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>3</v>
@@ -20457,7 +20466,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>3</v>
@@ -20491,7 +20500,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>3</v>
@@ -20524,10 +20533,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>9</v>
@@ -20544,7 +20553,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>9</v>
@@ -20561,7 +20570,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>9</v>
@@ -20578,7 +20587,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>9</v>
@@ -20595,7 +20604,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>9</v>
@@ -20612,7 +20621,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>9</v>
@@ -20629,7 +20638,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>9</v>
@@ -20646,7 +20655,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>9</v>
@@ -20663,7 +20672,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>9</v>
@@ -20680,7 +20689,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>9</v>
@@ -20697,7 +20706,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>9</v>
@@ -20714,7 +20723,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>9</v>
@@ -20729,7 +20738,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>9</v>
@@ -20744,7 +20753,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>9</v>
@@ -20759,7 +20768,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="41" t="s">
         <v>7</v>
@@ -20789,7 +20798,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>8</v>
@@ -20806,7 +20815,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="B33" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>8</v>
@@ -20838,7 +20847,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>8</v>
@@ -20870,7 +20879,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="B37" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>7</v>
@@ -20958,7 +20967,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="70"/>
       <c r="C46" s="70"/>
@@ -20985,7 +20994,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -20995,10 +21004,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -21011,27 +21020,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="27">
         <v>7000</v>
@@ -21047,12 +21056,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="54">
         <v>6300</v>
@@ -21070,7 +21079,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="64">
         <v>5600</v>
@@ -21095,33 +21104,33 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>3</v>
@@ -21155,7 +21164,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>3</v>
@@ -21189,7 +21198,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>3</v>
@@ -21222,10 +21231,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>9</v>
@@ -21242,7 +21251,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>9</v>
@@ -21259,7 +21268,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>9</v>
@@ -21276,7 +21285,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>9</v>
@@ -21293,7 +21302,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>9</v>
@@ -21310,7 +21319,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>9</v>
@@ -21327,7 +21336,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>9</v>
@@ -21344,7 +21353,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>9</v>
@@ -21361,7 +21370,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>9</v>
@@ -21378,7 +21387,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>9</v>
@@ -21395,7 +21404,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>9</v>
@@ -21412,7 +21421,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>9</v>
@@ -21427,7 +21436,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>9</v>
@@ -21442,7 +21451,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>9</v>
@@ -21457,7 +21466,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="41" t="s">
         <v>7</v>
@@ -21487,7 +21496,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>8</v>
@@ -21504,7 +21513,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="B33" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>8</v>
@@ -21536,7 +21545,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>8</v>
@@ -21568,7 +21577,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="B37" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>7</v>
@@ -21656,7 +21665,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="70"/>
       <c r="C46" s="70"/>
@@ -21683,7 +21692,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -21693,10 +21702,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -21709,27 +21718,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="27">
         <v>7000</v>
@@ -21745,12 +21754,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="10">
         <v>6300</v>
@@ -21774,33 +21783,33 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="E8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="G8" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>3</v>
@@ -21834,7 +21843,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>3</v>
@@ -21867,10 +21876,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>9</v>
@@ -21887,7 +21896,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>9</v>
@@ -21904,7 +21913,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>9</v>
@@ -21921,7 +21930,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>9</v>
@@ -21938,7 +21947,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>9</v>
@@ -21955,7 +21964,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>9</v>
@@ -21972,7 +21981,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>9</v>
@@ -21989,7 +21998,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>9</v>
@@ -22006,7 +22015,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>9</v>
@@ -22023,7 +22032,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>9</v>
@@ -22040,7 +22049,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>9</v>
@@ -22057,7 +22066,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>9</v>
@@ -22072,7 +22081,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
       <c r="B25" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>9</v>
@@ -22087,7 +22096,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>9</v>
@@ -22102,7 +22111,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>7</v>
@@ -22132,7 +22141,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>8</v>
@@ -22149,7 +22158,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="B30" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="41" t="s">
         <v>8</v>
@@ -22181,7 +22190,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>8</v>
@@ -22213,7 +22222,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>7</v>
@@ -22328,7 +22337,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="70"/>
       <c r="C46" s="70"/>
@@ -22355,7 +22364,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -22365,10 +22374,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -22381,27 +22390,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="3">
         <v>3000</v>
@@ -22417,38 +22426,38 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>3</v>
@@ -22481,10 +22490,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>9</v>
@@ -22499,7 +22508,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>9</v>
@@ -22514,7 +22523,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>9</v>
@@ -22531,7 +22540,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>9</v>
@@ -22548,7 +22557,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>9</v>
@@ -22832,7 +22841,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -22853,7 +22862,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -22863,10 +22872,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -22879,27 +22888,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="3">
         <v>2500</v>
@@ -22915,38 +22924,38 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>3</v>
@@ -22979,10 +22988,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>9</v>
@@ -22997,7 +23006,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>9</v>
@@ -23012,7 +23021,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>9</v>
@@ -23029,7 +23038,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>9</v>
@@ -23046,7 +23055,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>9</v>
@@ -23330,7 +23339,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -23351,7 +23360,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -23361,10 +23370,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -23377,27 +23386,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -23413,12 +23422,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="10">
         <v>4800</v>
@@ -23436,33 +23445,33 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="E8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="G8" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="85" t="s">
         <v>3</v>
@@ -23504,7 +23513,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="85" t="s">
         <v>3</v>
@@ -23537,10 +23546,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
       </c>
       <c r="C15" s="85" t="s">
         <v>9</v>
@@ -23571,7 +23580,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="85" t="s">
         <v>7</v>
@@ -23625,7 +23634,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="85" t="s">
         <v>7</v>
@@ -23639,7 +23648,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="85" t="s">
         <v>7</v>
@@ -23675,7 +23684,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="85" t="s">
         <v>9</v>
@@ -23746,7 +23755,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="85"/>
     </row>
@@ -23768,7 +23777,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -23778,10 +23787,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -23794,27 +23803,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="3">
         <v>3000</v>
@@ -23830,38 +23839,38 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>3</v>
@@ -23892,7 +23901,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="41" t="s">
@@ -23914,7 +23923,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>12</v>
@@ -23950,7 +23959,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>9</v>
@@ -23965,7 +23974,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>9</v>
@@ -23980,7 +23989,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>9</v>
@@ -23995,7 +24004,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>9</v>
@@ -24010,7 +24019,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>9</v>
@@ -24025,7 +24034,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>9</v>
@@ -24040,7 +24049,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>9</v>
@@ -24055,7 +24064,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>9</v>
@@ -24285,7 +24294,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -24306,7 +24315,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -24318,10 +24327,10 @@
     <row r="1" spans="1:9" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -24334,27 +24343,27 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="27">
         <v>5040</v>
@@ -24370,7 +24379,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="35"/>
     </row>
@@ -24379,33 +24388,33 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>3</v>
@@ -24434,10 +24443,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>7</v>
@@ -24509,7 +24518,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>7</v>
@@ -24581,7 +24590,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>8</v>
@@ -24598,7 +24607,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>9</v>
@@ -24613,7 +24622,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>7</v>
@@ -24630,7 +24639,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>8</v>
@@ -24860,7 +24869,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -24883,11 +24892,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -24901,10 +24910,10 @@
     <row r="1" spans="1:9" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -24917,27 +24926,27 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="27">
         <v>3000</v>
@@ -24953,7 +24962,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="35"/>
     </row>
@@ -24962,33 +24971,33 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="77" t="s">
         <v>3</v>
@@ -25023,7 +25032,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="77"/>
@@ -25346,7 +25355,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="78"/>
@@ -25363,13 +25372,13 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -25383,10 +25392,10 @@
     <row r="1" spans="1:9" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -25399,27 +25408,27 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="27">
         <v>2500</v>
@@ -25435,7 +25444,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="35"/>
     </row>
@@ -25444,33 +25453,33 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="77" t="s">
         <v>3</v>
@@ -25505,7 +25514,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="77"/>
@@ -25821,15 +25830,17 @@
       <c r="G44" s="44"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="78"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25846,10 +25857,10 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -25863,10 +25874,10 @@
     <row r="1" spans="1:9" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -25879,27 +25890,27 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="27">
         <v>2000</v>
@@ -25924,33 +25935,33 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="77" t="s">
         <v>3</v>
@@ -25985,7 +25996,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="77"/>
@@ -26311,7 +26322,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="77"/>
@@ -26330,11 +26341,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -26348,10 +26359,10 @@
     <row r="1" spans="1:9" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -26364,27 +26375,27 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" s="76" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" s="76" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="27">
         <v>800</v>
@@ -26400,7 +26411,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H5" s="35"/>
     </row>
@@ -26409,33 +26420,33 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="77" t="s">
         <v>3</v>
@@ -26470,7 +26481,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="77"/>
@@ -26796,7 +26807,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="77"/>
@@ -26819,7 +26830,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -26829,10 +26840,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -26845,27 +26856,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -26881,12 +26892,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="10">
         <v>4800</v>
@@ -26904,33 +26915,33 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="E8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="G8" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="85" t="s">
         <v>3</v>
@@ -26972,7 +26983,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="85" t="s">
         <v>3</v>
@@ -27005,10 +27016,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="85" t="s">
         <v>9</v>
@@ -27039,7 +27050,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="85" t="s">
         <v>7</v>
@@ -27093,7 +27104,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="85" t="s">
         <v>7</v>
@@ -27107,7 +27118,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="85" t="s">
         <v>7</v>
@@ -27143,7 +27154,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="85" t="s">
         <v>7</v>
@@ -27165,7 +27176,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="85" t="s">
         <v>9</v>
@@ -27230,7 +27241,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="85"/>
     </row>
@@ -27252,7 +27263,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -27262,10 +27273,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -27278,27 +27289,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -27313,12 +27324,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="54">
         <v>4005</v>
@@ -27335,7 +27346,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3">
         <v>1068</v>
@@ -27352,33 +27363,33 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>3</v>
@@ -27442,7 +27453,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>3</v>
@@ -27476,7 +27487,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>3</v>
@@ -27496,10 +27507,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>9</v>
@@ -27535,7 +27546,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>7</v>
@@ -27594,7 +27605,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>7</v>
@@ -27611,7 +27622,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>7</v>
@@ -27658,7 +27669,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>9</v>
@@ -27843,7 +27854,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="43"/>
       <c r="C46" s="41"/>
@@ -27879,7 +27890,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -27889,10 +27900,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -27905,27 +27916,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -27940,12 +27951,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="54">
         <v>4005</v>
@@ -27962,7 +27973,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3">
         <v>1068</v>
@@ -27979,33 +27990,33 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>3</v>
@@ -28069,7 +28080,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>3</v>
@@ -28103,7 +28114,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>3</v>
@@ -28123,10 +28134,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>9</v>
@@ -28162,7 +28173,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>7</v>
@@ -28221,7 +28232,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>7</v>
@@ -28238,7 +28249,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>7</v>
@@ -28285,7 +28296,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>7</v>
@@ -28315,7 +28326,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>9</v>
@@ -28486,7 +28497,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="43"/>
       <c r="C46" s="41"/>
@@ -28522,7 +28533,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -28532,10 +28543,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -28548,27 +28559,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -28583,12 +28594,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10">
         <v>4005</v>
@@ -28612,33 +28623,33 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>3</v>
@@ -28672,7 +28683,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>3</v>
@@ -28705,10 +28716,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>7</v>
@@ -28729,7 +28740,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>7</v>
@@ -28750,7 +28761,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>7</v>
@@ -28771,7 +28782,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>7</v>
@@ -28803,7 +28814,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>9</v>
@@ -28818,7 +28829,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>9</v>
@@ -28833,7 +28844,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>7</v>
@@ -28850,7 +28861,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>7</v>
@@ -28886,7 +28897,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>9</v>
@@ -29080,7 +29091,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="43"/>
       <c r="C46" s="41"/>
@@ -29104,7 +29115,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -29114,10 +29125,10 @@
     <row r="1" spans="1:7" ht="255.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="str">
@@ -29130,27 +29141,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="27">
         <v>4005</v>
@@ -29165,12 +29176,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10">
         <v>4005</v>
@@ -29194,33 +29205,33 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>3</v>
@@ -29254,7 +29265,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>3</v>
@@ -29285,10 +29296,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>7</v>
@@ -29309,7 +29320,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>7</v>
@@ -29330,7 +29341,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>7</v>
@@ -29351,7 +29362,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>7</v>
@@ -29383,7 +29394,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>9</v>
@@ -29398,7 +29409,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>9</v>
@@ -29413,7 +29424,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>7</v>
@@ -29430,7 +29441,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>7</v>
@@ -29466,7 +29477,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>7</v>
@@ -29496,7 +29507,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>8</v>
@@ -29681,7 +29692,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>

--- a/protocols/Protocolo de constraints.xlsx
+++ b/protocols/Protocolo de constraints.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9435" tabRatio="895" firstSheet="34" activeTab="44"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9435" tabRatio="895"/>
   </bookViews>
   <sheets>
     <sheet name="NE" sheetId="45" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="166">
   <si>
     <t>Constraint</t>
   </si>
@@ -559,12 +559,15 @@
   <si>
     <t>CBCT una vez por semana + CBCT primeros 3 días representativos para promedios</t>
   </si>
+  <si>
+    <t>NO AGREGAR PESTANAS NUEVAS ANTES DE VMI+BOOST INT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,8 +624,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,6 +727,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,7 +1062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1138,6 +1155,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3830,7 +3849,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4094,11 +4113,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" style="76" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="76" customWidth="1"/>
@@ -4153,7 +4172,9 @@
       <c r="B7" s="89"/>
       <c r="C7" s="89"/>
       <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
+      <c r="E7" s="92" t="s">
+        <v>165</v>
+      </c>
       <c r="F7" s="89"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -4253,7 +4274,7 @@
       <c r="B15" s="89"/>
       <c r="C15" s="89"/>
       <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="89"/>
       <c r="G15" s="90"/>
       <c r="H15" s="89"/>
@@ -4348,8 +4369,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4361,7 +4382,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -4983,7 +5004,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -5617,7 +5638,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -6270,7 +6291,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -6935,7 +6956,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -7447,7 +7468,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -7971,7 +7992,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -8548,7 +8569,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -9152,7 +9173,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -9738,7 +9759,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -10336,7 +10357,7 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" style="76" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="76" customWidth="1"/>
@@ -10590,7 +10611,7 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -11102,7 +11123,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -11626,7 +11647,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -12195,7 +12216,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -12782,7 +12803,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -13371,7 +13392,7 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -13978,7 +13999,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -14583,7 +14604,7 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -15257,7 +15278,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -15947,7 +15968,7 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -16600,10 +16621,10 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -17084,7 +17105,7 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -17717,10 +17738,10 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -17917,7 +17938,7 @@
       <c r="A13" s="42"/>
       <c r="B13" s="46"/>
       <c r="C13" s="47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="46">
         <v>5885</v>
@@ -18351,7 +18372,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -18890,7 +18911,7 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -19580,7 +19601,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -20296,7 +20317,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -20994,7 +21015,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -21692,7 +21713,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -22364,7 +22385,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -22862,7 +22883,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -23360,7 +23381,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -23777,7 +23798,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -24315,7 +24336,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -24892,11 +24913,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -25031,9 +25052,7 @@
       <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>37</v>
-      </c>
+      <c r="A10" s="42"/>
       <c r="B10" s="43"/>
       <c r="C10" s="77"/>
       <c r="D10" s="43"/>
@@ -25374,11 +25393,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -25513,9 +25532,7 @@
       <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>37</v>
-      </c>
+      <c r="A10" s="42"/>
       <c r="B10" s="43"/>
       <c r="C10" s="77"/>
       <c r="D10" s="43"/>
@@ -25857,10 +25874,10 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -25995,9 +26012,7 @@
       <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>37</v>
-      </c>
+      <c r="A10" s="42"/>
       <c r="B10" s="43"/>
       <c r="C10" s="77"/>
       <c r="D10" s="43"/>
@@ -26341,11 +26356,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -26480,9 +26495,7 @@
       <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>37</v>
-      </c>
+      <c r="A10" s="42"/>
       <c r="B10" s="43"/>
       <c r="C10" s="77"/>
       <c r="D10" s="43"/>
@@ -26830,7 +26843,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -27263,7 +27276,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -27890,7 +27903,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -28533,7 +28546,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
@@ -29115,7 +29128,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" style="76" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" style="76" customWidth="1"/>
